--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727298.021755987</v>
+        <v>2831477.656207056</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.33803137561117</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>152.593887404148</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>156.5221186259508</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>93.7208231141789</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>161.218207791238</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>197.1871596835337</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>83.87580314198379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.5957429218798</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>315.3882082434892</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.2652736041682</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>132.6406248247166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>215.3025979624043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>274.4742420473661</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.40444476188276</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.10998325717217</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>21.8567702508366</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>279.8736113776584</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>134.0367616438387</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>225.6414338000058</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="T31" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>112.1382188876859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,13 +3325,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.35059460820252</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987835017</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.44478684180609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.55695577161283</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2201.719078084902</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1832.75656114449</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1474.49086253774</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1088.702609939495</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>677.716705149888</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>262.6442549948844</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269321</v>
+        <v>2588.318918149024</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.10447029351</v>
+        <v>2588.318918149024</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686091</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2183.991441269949</v>
+        <v>2193.591127768009</v>
       </c>
       <c r="C4" t="n">
-        <v>2015.055258342042</v>
+        <v>2024.654944840102</v>
       </c>
       <c r="D4" t="n">
-        <v>2015.055258342042</v>
+        <v>2024.654944840102</v>
       </c>
       <c r="E4" t="n">
-        <v>1867.142164759648</v>
+        <v>1876.741851257709</v>
       </c>
       <c r="F4" t="n">
-        <v>1720.252217261738</v>
+        <v>1729.851903759798</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134518</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134518</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.7753643667</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.7753643667</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178696</v>
+        <v>3014.008748936226</v>
       </c>
       <c r="U4" t="n">
-        <v>3103.839206178696</v>
+        <v>2919.341250841096</v>
       </c>
       <c r="V4" t="n">
-        <v>3103.839206178696</v>
+        <v>2664.656762635209</v>
       </c>
       <c r="W4" t="n">
-        <v>2814.422036141736</v>
+        <v>2375.239592598249</v>
       </c>
       <c r="X4" t="n">
-        <v>2586.432485243718</v>
+        <v>2375.239592598249</v>
       </c>
       <c r="Y4" t="n">
-        <v>2365.639906100188</v>
+        <v>2375.239592598249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1559.116588708439</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.154071768027</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2703.250922730625</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923659</v>
+        <v>2350.482267460511</v>
       </c>
       <c r="X5" t="n">
-        <v>2335.855760748373</v>
+        <v>1977.016509199431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1945.716428772561</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>885.3316599278505</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>885.3316599278505</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796417</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.990616856005</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1550.724918249255</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796417</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.0847133907091</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>448.5658205051316</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>298.4491810927958</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>298.4491810927958</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>608.0847133907091</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961525</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.154262550759</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5647,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773693</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1600804794589</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5715,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311994</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6918836311994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2505.71655096576</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2357.803457383367</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>3838.083511855031</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>4389.993242094319</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,16 +6785,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3118.73869457197</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644064</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H34" t="n">
         <v>2337.686731866304</v>
@@ -6886,22 +6888,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>4038.586459480718</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3749.169289443757</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3521.17973854574</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3300.38715940221</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6962,22 +6964,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,16 +7016,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951537</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3403484614391</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4041655335323</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>664.2875261211965</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3744325388034</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>369.484485040893</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7102,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7192,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7199,13 +7201,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7339,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,7 +7350,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
@@ -7357,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015259</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,10 +7408,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7418,16 +7420,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7436,13 +7438,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3658.217393399323</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4285.81535695393</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>4285.81535695393</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908938</v>
@@ -7576,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,7 +7587,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
@@ -7594,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,16 +7666,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.53722908186</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153953</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741617</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159224</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4517.069482196494</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T46" t="n">
-        <v>4517.069482196494</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196494</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990608</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953647</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X46" t="n">
         <v>3744.978273055629</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912099</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>70.88187642683985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>55.2110282563296</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>142.4141550350967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7587027673758</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>6.310863011585752</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>152.1477127454055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>60.88156453658516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>65.30341755403234</v>
       </c>
       <c r="T31" t="n">
-        <v>151.1491633157407</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9994244361421</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1735436840663</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.6085800303773</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551216</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314476</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.06702314482</v>
-      </c>
       <c r="E4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179348</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179347</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179348</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740968</v>
+        <v>-849673.2931740978</v>
       </c>
       <c r="C6" t="n">
+        <v>479071.4525534956</v>
+      </c>
+      <c r="D6" t="n">
         <v>479071.4525534954</v>
-      </c>
-      <c r="D6" t="n">
-        <v>479071.4525534953</v>
       </c>
       <c r="E6" t="n">
         <v>228193.9208611994</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685544</v>
+        <v>553606.3826685541</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685546</v>
+        <v>553606.3826685542</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.3826685544</v>
+        <v>553606.382668554</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685551</v>
+        <v>553606.3826685542</v>
       </c>
       <c r="J6" t="n">
-        <v>336075.1802712772</v>
+        <v>336075.1802712767</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.3826685546</v>
+        <v>553606.3826685543</v>
       </c>
       <c r="L6" t="n">
-        <v>553606.3826685548</v>
+        <v>553606.3826685541</v>
       </c>
       <c r="M6" t="n">
-        <v>468551.3547330423</v>
+        <v>468551.3547330422</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685546</v>
+        <v>553606.3826685541</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685543</v>
+        <v>553606.3826685541</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685543</v>
+        <v>553606.3826685547</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3958102878694</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>142.0138769831724</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.503689633077471</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>192.491015091434</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>166.5340506788969</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>172.5439409949354</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6471951946072</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.1380987416008</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>66.54216182877258</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.15577441876309</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.94402852737818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>638.9422653403558</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913745</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>616.5397119226047</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33970,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458081</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488877</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018702</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>496.3460208959114</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>303.8786972770443</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013637</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2831477.656207056</v>
+        <v>2827465.046193065</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>152.593887404148</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U4" t="n">
-        <v>93.7208231141789</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>344.3683486807346</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>161.218207791238</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>78.14223821376341</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.5957429218798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>251.2852794514157</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>133.2652736041682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722601</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812258</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>274.4742420473661</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605718616</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>93.40444476188276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>279.8736113776584</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>134.0367616438387</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>130.4114987159107</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>40.37234576591278</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S31" t="n">
-        <v>115.7228684476123</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428269</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>80.11763046889914</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.006892987835017</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>41.55695577161283</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>263.5476938223777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>86.60069024005115</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2201.719078084902</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1832.75656114449</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1474.49086253774</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1088.702609939495</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>677.716705149888</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>262.6442549948844</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410104</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410104</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149024</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2588.318918149024</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2193.591127768009</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C4" t="n">
-        <v>2024.654944840102</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.654944840102</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257709</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759798</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134518</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134518</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952863</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348675</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102585</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456658</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.7753643667</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.7753643667</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936226</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="U4" t="n">
-        <v>2919.341250841096</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="V4" t="n">
-        <v>2664.656762635209</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="W4" t="n">
-        <v>2375.239592598249</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="X4" t="n">
-        <v>2375.239592598249</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y4" t="n">
-        <v>2375.239592598249</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>878.3737829461486</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2703.250922730625</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2350.482267460511</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.016509199431</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1848.362994337217</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1848.362994337217</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1626.596378906743</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1337.493512032386</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>320.335631029573</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,13 +4840,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004521</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y8" t="n">
         <v>2230.937844028709</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5020034330385</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>448.5658205051316</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>298.4491810927958</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>298.4491810927958</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467611</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400734</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,16 +5314,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.041646372059</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400734</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270467</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.661001050011</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1689.976512844124</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.559342807163</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6268,10 +6268,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804965</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>615.6449305525895</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402536</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250934</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595132</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389245</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352284</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454267</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107363</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3210.485548300424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3838.083511855031</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4389.993242094319</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991042</v>
+        <v>989.3306680894871</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>820.3944851615801</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232843</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408911</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2330.071297269541</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1786.311582407852</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.894412370891</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.904861472874</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>1170.979132919727</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,16 +6715,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2421.591387345378</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969299</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961527</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,13 +7502,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908938</v>
@@ -7563,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601573</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405051</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405051</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.2110282563296</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24.8182909385097</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>6.310863011585752</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>86.99395161137772</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2431272522997</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>65.30341755403234</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219412</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392978</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>137.2878198583891</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6085800303773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.4693302300317</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>22.63678056686643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>199.9223080965398</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442546</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.989344098216831e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551216</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179369</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179361</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26441,22 +26441,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740978</v>
+        <v>-849673.2931740971</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534956</v>
+        <v>479071.4525534954</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534954</v>
+        <v>479071.4525534955</v>
       </c>
       <c r="E6" t="n">
-        <v>228193.9208611994</v>
+        <v>227846.5416068423</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.382668554</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141972</v>
       </c>
       <c r="J6" t="n">
-        <v>336075.1802712767</v>
+        <v>335727.8010169198</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="L6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="M6" t="n">
-        <v>468551.3547330422</v>
+        <v>468203.9754786859</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141975</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685541</v>
+        <v>553259.0034141975</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685547</v>
+        <v>553259.0034141974</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>142.0138769831724</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U4" t="n">
-        <v>192.491015091434</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>37.56202139152714</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>166.5340506788969</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.78991445628392</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.1380987416008</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>159.6364462020378</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.15577441876309</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.626941340269884e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.086082947714548e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29699,46 +29699,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.829284745019472e-14</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.086082947714548e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>665.2579603615019</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589143</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>332.984146493841</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913745</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,37 +33733,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226047</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>699.0496615458081</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,10 +33997,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,31 +34213,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>357.9244589488877</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>522.6617159170574</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728927</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795108</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770443</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427306</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>556.4534171013637</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5827468655544</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2827465.046193065</v>
+        <v>2829225.576495851</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.064896548357</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>38.18739105194324</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>344.3683486807346</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>72.11102768971692</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>78.14223821376341</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>251.2852794514157</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3605237366031</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4.04318711639895</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695616</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812258</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187872</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>104.7777418077837</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605718616</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4285301601181</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>130.4114987159107</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>40.37234576591278</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>53.65602513333641</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>80.11763046889914</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>263.5476938223777</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>86.60069024005115</v>
+        <v>237.6308938572178</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>846.0716871064764</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080143</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2892.365997936254</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2892.365997936254</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2892.365997936254</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W4" t="n">
-        <v>2892.365997936254</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936254</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493311</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.639481552899</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3737829461486</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3252.766399700367</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3252.766399700367</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2999.235922974203</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2668.173035630633</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1848.362994337217</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1848.362994337217</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1626.596378906743</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.493512032386</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.809023826499</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.809023826499</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191806</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>320.335631029573</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972543</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972543</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2387.388512467611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570313</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132772</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.041646372059</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400734</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121666</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121666</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121666</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121666</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270467</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713843</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570313</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>547.5889719879178</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6211,52 +6211,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804965</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>615.6449305525895</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402536</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578604</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578604</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250934</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595132</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389245</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352284</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454267</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107363</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>989.3306680894871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>820.3944851615801</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232843</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408911</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854705</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817744</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919727</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1170.979132919727</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6718,13 +6718,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>148.0146682331602</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7830,19 +7830,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
         <v>1413.271624709496</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405051</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405051</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>24.8182909385097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.27114962944304</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>86.99395161137772</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2431272522997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>27.60981118522913</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>137.2878198583891</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>22.63678056686643</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.9223080965398</v>
+        <v>48.89210447937322</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.976671782625058e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>8.989344098216831e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179369</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,13 +26441,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740971</v>
+        <v>-849673.2931740967</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534954</v>
+        <v>479071.4525534952</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534955</v>
+        <v>479071.4525534959</v>
       </c>
       <c r="E6" t="n">
-        <v>227846.5416068423</v>
+        <v>228159.1829357633</v>
       </c>
       <c r="F6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="G6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="H6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="I6" t="n">
-        <v>553259.0034141972</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="J6" t="n">
-        <v>335727.8010169198</v>
+        <v>336040.4423458409</v>
       </c>
       <c r="K6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="L6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="M6" t="n">
-        <v>468203.9754786859</v>
+        <v>468516.6168076069</v>
       </c>
       <c r="N6" t="n">
-        <v>553259.0034141975</v>
+        <v>553571.6447431184</v>
       </c>
       <c r="O6" t="n">
-        <v>553259.0034141975</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="P6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431189</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>327.0855007190643</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>69.34270184147189</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>155.6308914313325</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>37.56202139152714</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>37.07673409845889</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.78991445628392</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>159.6364462020378</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>92.30923329343914</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.626941340269884e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>-5.405757192534483e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.086082947714548e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29699,46 +29699,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.829284745019472e-14</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.086082947714548e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>307.3280120589143</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>332.984146493841</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.3462379728927</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,13 +35576,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0097390795108</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35813,13 +35813,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
